--- a/CV/Lightweight/assets/IR_SR_Lightweight_Result.xlsx
+++ b/CV/Lightweight/assets/IR_SR_Lightweight_Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13660" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="27660" windowHeight="13160" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="2" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="IR_Blind_Image_Denoising" sheetId="7" r:id="rId6"/>
     <sheet name="IR_Low-Light_Image_Enhancement" sheetId="8" r:id="rId7"/>
     <sheet name="IR_Image_Derain" sheetId="9" r:id="rId8"/>
+    <sheet name="IR_Color_Image_Denoising" sheetId="10" r:id="rId9"/>
+    <sheet name="IR_Grayscale_Image_Denoising" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="67">
   <si>
     <t>Method</t>
   </si>
@@ -95,15 +97,18 @@
     <t>LatticeNet-CL+</t>
   </si>
   <si>
+    <t>Compacter</t>
+  </si>
+  <si>
+    <t>RAMiT</t>
+  </si>
+  <si>
     <t>ASID</t>
   </si>
   <si>
     <t>ASID-D8</t>
   </si>
   <si>
-    <t>Compacter</t>
-  </si>
-  <si>
     <t>Gaussian Noise Removal</t>
   </si>
   <si>
@@ -179,10 +184,19 @@
     <t>DIV2K+Flickr2K+BSD400+WED</t>
   </si>
   <si>
+    <t>800 DIV2K+2650 Flickr2K+400 BSD500+4744 WED</t>
+  </si>
+  <si>
     <t>Low-Light Image Enhancement</t>
   </si>
   <si>
-    <t>Train:LOL Test:LOL</t>
+    <t>LOL</t>
+  </si>
+  <si>
+    <t>VE-LOL-cap</t>
+  </si>
+  <si>
+    <t>485 LOL + 1300 VE-LOL</t>
   </si>
   <si>
     <t>Image Derain</t>
@@ -195,6 +209,21 @@
   </si>
   <si>
     <t>Rain13K</t>
+  </si>
+  <si>
+    <t>Color Image Denoising</t>
+  </si>
+  <si>
+    <t>935K</t>
+  </si>
+  <si>
+    <t>Grayscale Image Denoising</t>
+  </si>
+  <si>
+    <t>Set12</t>
+  </si>
+  <si>
+    <t>BSD68</t>
   </si>
 </sst>
 </file>
@@ -847,26 +876,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1406,1487 +1444,1619 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BB13"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="16.6153846153846" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.6923076923077" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.6153846153846" style="6" customWidth="1"/>
-    <col min="4" max="5" width="14.4615384615385" style="6" customWidth="1"/>
-    <col min="6" max="15" width="9.23076923076923" style="6"/>
-    <col min="16" max="16" width="11.2307692307692" style="6" customWidth="1"/>
-    <col min="17" max="18" width="14.4615384615385" style="6" customWidth="1"/>
-    <col min="19" max="28" width="9.23076923076923" style="6"/>
-    <col min="29" max="29" width="11.2307692307692" style="6" customWidth="1"/>
-    <col min="30" max="31" width="14.4615384615385" style="6" customWidth="1"/>
-    <col min="32" max="41" width="9.23076923076923" style="6"/>
-    <col min="42" max="42" width="11.2307692307692" style="6" customWidth="1"/>
-    <col min="43" max="44" width="14.4615384615385" style="6" customWidth="1"/>
-    <col min="45" max="16384" width="9.23076923076923" style="6"/>
+    <col min="1" max="1" width="16.6153846153846" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.6923076923077" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6153846153846" style="8" customWidth="1"/>
+    <col min="4" max="5" width="14.4615384615385" style="8" customWidth="1"/>
+    <col min="6" max="15" width="9.23076923076923" style="8"/>
+    <col min="16" max="16" width="11.2307692307692" style="8" customWidth="1"/>
+    <col min="17" max="18" width="14.4615384615385" style="8" customWidth="1"/>
+    <col min="19" max="28" width="9.23076923076923" style="8"/>
+    <col min="29" max="29" width="11.2307692307692" style="8" customWidth="1"/>
+    <col min="30" max="31" width="14.4615384615385" style="8" customWidth="1"/>
+    <col min="32" max="41" width="9.23076923076923" style="8"/>
+    <col min="42" max="42" width="11.2307692307692" style="8" customWidth="1"/>
+    <col min="43" max="44" width="14.4615384615385" style="8" customWidth="1"/>
+    <col min="45" max="16384" width="9.23076923076923" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:54">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:54">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="4" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="4" t="s">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="4" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AS1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:54">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="10" t="s">
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+    </row>
+    <row r="2" s="12" customFormat="1" spans="1:54">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="10" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10" t="s">
+      <c r="V2" s="13"/>
+      <c r="W2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10" t="s">
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10" t="s">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="10" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10" t="s">
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10" t="s">
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10" t="s">
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10" t="s">
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="10" t="s">
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10" t="s">
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10" t="s">
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10" t="s">
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10" t="s">
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="10"/>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:54">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB3" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="1:54">
-      <c r="A4" s="10" t="s">
+      <c r="BB2" s="13"/>
+    </row>
+    <row r="3" s="12" customFormat="1" spans="1:54">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB3" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" spans="1:54">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="13">
         <v>770</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10">
+      <c r="R4" s="13"/>
+      <c r="S4" s="13">
         <v>34.42</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="13">
         <v>0.9268</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="13">
         <v>30.43</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="13">
         <v>0.8433</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="13">
         <v>29.15</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="13">
         <v>0.8063</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="13">
         <v>28.46</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="13">
         <v>0.8574</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="13">
         <v>33.95</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="13">
         <v>0.9455</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="13">
         <v>751</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10">
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13">
         <v>32.19</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="13">
         <v>0.8947</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="13">
         <v>28.69</v>
       </c>
-      <c r="AI4" s="10">
+      <c r="AI4" s="13">
         <v>0.7833</v>
       </c>
-      <c r="AJ4" s="10">
+      <c r="AJ4" s="13">
         <v>27.69</v>
       </c>
-      <c r="AK4" s="10">
+      <c r="AK4" s="13">
         <v>0.7379</v>
       </c>
-      <c r="AL4" s="10">
+      <c r="AL4" s="13">
         <v>26.39</v>
       </c>
-      <c r="AM4" s="10">
+      <c r="AM4" s="13">
         <v>0.7962</v>
       </c>
-      <c r="AN4" s="10">
+      <c r="AN4" s="13">
         <v>30.75</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AO4" s="13">
         <v>0.91</v>
       </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AP4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="10" t="s">
+      <c r="AQ4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10" t="s">
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="10" t="s">
+      <c r="AT4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AU4" s="10" t="s">
+      <c r="AU4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AV4" s="10" t="s">
+      <c r="AV4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AW4" s="10" t="s">
+      <c r="AW4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AX4" s="10" t="s">
+      <c r="AX4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AY4" s="10" t="s">
+      <c r="AY4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AZ4" s="10" t="s">
+      <c r="AZ4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="BA4" s="10" t="s">
+      <c r="BA4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="BB4" s="10" t="s">
+      <c r="BB4" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:54">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="12" customFormat="1" spans="1:54">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <v>266</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="13">
         <v>58.8</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
         <v>37.86</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="13">
         <v>0.96</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="13">
         <v>33.39</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="13">
         <v>0.916</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="13">
         <v>32.06</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="13">
         <v>0.8982</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="13">
         <v>31.72</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="13">
         <v>0.9242</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="13">
         <v>270</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="13">
         <v>26.6</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13">
         <v>34.17</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="13">
         <v>0.9252</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="13">
         <v>30.16</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="13">
         <v>0.838</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="13">
         <v>28.98</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="13">
         <v>0.8021</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="13">
         <v>27.8</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="13">
         <v>0.844</v>
       </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10">
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13">
         <v>276</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="13">
         <v>15.3</v>
       </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10">
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13">
         <v>31.97</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="13">
         <v>0.8911</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH5" s="13">
         <v>28.44</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AI5" s="13">
         <v>0.7772</v>
       </c>
-      <c r="AJ5" s="10">
+      <c r="AJ5" s="13">
         <v>27.48</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AK5" s="13">
         <v>0.7321</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AL5" s="13">
         <v>25.78</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AM5" s="13">
         <v>0.7729</v>
       </c>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="10"/>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="1:54">
-      <c r="A6" s="10" t="s">
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+    </row>
+    <row r="6" s="12" customFormat="1" spans="1:54">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="13">
         <v>756</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="13">
         <v>169.5</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
         <v>38.06</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="13">
         <v>0.9607</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="13">
         <v>33.7</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="13">
         <v>0.9187</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="13">
         <v>32.2</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="13">
         <v>0.8999</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="13">
         <v>32.25</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="13">
         <v>0.9288</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="13">
         <v>765</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="13">
         <v>76.3</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10">
+      <c r="R6" s="13"/>
+      <c r="S6" s="13">
         <v>34.4</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="13">
         <v>0.9272</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="13">
         <v>30.32</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="13">
         <v>0.8416</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="13">
         <v>29.1</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="13">
         <v>0.8049</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="13">
         <v>28.19</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="13">
         <v>0.8513</v>
       </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10">
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13">
         <v>777</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD6" s="13">
         <v>43.6</v>
       </c>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10">
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13">
         <v>32.18</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="13">
         <v>0.8943</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AH6" s="13">
         <v>28.61</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AI6" s="13">
         <v>0.7812</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AJ6" s="13">
         <v>27.57</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AK6" s="13">
         <v>0.7355</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AL6" s="13">
         <v>26.14</v>
       </c>
-      <c r="AM6" s="10">
+      <c r="AM6" s="13">
         <v>0.7844</v>
       </c>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="13">
         <v>756</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>1356</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>38.15</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>0.961</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>33.78</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>0.9193</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>32.25</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>0.9005</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>32.43</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>0.9302</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="13">
         <v>765</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2">
         <v>610.4</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2">
         <v>34.53</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="2">
         <v>0.9281</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="2">
         <v>30.39</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="2">
         <v>0.8424</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="2">
         <v>29.15</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="2">
         <v>0.8059</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="2">
         <v>28.33</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="2">
         <v>0.8538</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2">
         <v>777</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="2">
         <v>348.8</v>
       </c>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1">
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2">
         <v>32.3</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="2">
         <v>0.8962</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="2">
         <v>28.68</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="2">
         <v>0.783</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="2">
         <v>27.62</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="2">
         <v>0.7367</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7" s="2">
         <v>26.25</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="2">
         <v>0.7873</v>
       </c>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
     </row>
     <row r="8" spans="1:54">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="13">
         <v>756</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>169.5</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>38.09</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.9608</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>33.7</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0.9188</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>32.21</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>0.9</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>32.29</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>0.9291</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="13">
         <v>765</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <v>76.3</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1">
+      <c r="R8" s="2"/>
+      <c r="S8" s="2">
         <v>34.46</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="2">
         <v>0.9275</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="2">
         <v>30.37</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="2">
         <v>0.8422</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="2">
         <v>29.12</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="2">
         <v>0.8054</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="2">
         <v>28.23</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="2">
         <v>0.8525</v>
       </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1">
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2">
         <v>777</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="2">
         <v>43.6</v>
       </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1">
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2">
         <v>32.3</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AG8" s="2">
         <v>0.8958</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="2">
         <v>28.65</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="2">
         <v>0.7822</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="2">
         <v>27.59</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" s="2">
         <v>0.7365</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AL8" s="2">
         <v>26.19</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8" s="2">
         <v>0.7855</v>
       </c>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
     </row>
     <row r="9" spans="1:54">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <v>756</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>1356</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>38.16</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>0.961</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>33.77</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>0.9193</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>32.25</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>0.9004</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>32.42</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>0.9302</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="13">
         <v>765</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="2">
         <v>610.4</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
         <v>34.54</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="2">
         <v>0.9281</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="2">
         <v>30.42</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="2">
         <v>0.843</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="2">
         <v>29.17</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="2">
         <v>0.8063</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="2">
         <v>28.37</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="2">
         <v>0.8548</v>
       </c>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2">
         <v>777</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="2">
         <v>348.8</v>
       </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1">
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2">
         <v>32.39</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AG9" s="2">
         <v>0.8973</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="2">
         <v>28.71</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AI9" s="2">
         <v>0.7837</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="2">
         <v>27.64</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AK9" s="2">
         <v>0.7375</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AL9" s="2">
         <v>26.29</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9" s="2">
         <v>0.789</v>
       </c>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
     </row>
     <row r="10" spans="1:54">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
+        <v>393</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>38.24</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.9619</v>
+      </c>
+      <c r="H10" s="2">
+        <v>34.08</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.9215</v>
+      </c>
+      <c r="J10" s="2">
+        <v>32.35</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.9026</v>
+      </c>
+      <c r="L10" s="2">
+        <v>32.99</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.9354</v>
+      </c>
+      <c r="N10" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.9786</v>
+      </c>
+      <c r="P10" s="2">
+        <v>399</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2">
+        <v>34.69</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="U10" s="2">
+        <v>30.65</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.8477</v>
+      </c>
+      <c r="W10" s="2">
+        <v>29.28</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.8117</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0.8659</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>34.31</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0.9487</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>408</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2">
+        <v>32.53</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0.8994</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>28.88</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0.7876</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>27.76</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0.744</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>26.69</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0.8025</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>31.24</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0.9148</v>
+      </c>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+    </row>
+    <row r="11" spans="1:54">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>940</v>
+      </c>
+      <c r="D11" s="2">
+        <v>163.4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>38.16</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.9612</v>
+      </c>
+      <c r="H11" s="2">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.9213</v>
+      </c>
+      <c r="J11" s="2">
+        <v>32.33</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.9015</v>
+      </c>
+      <c r="L11" s="2">
+        <v>32.81</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.9346</v>
+      </c>
+      <c r="N11" s="2">
+        <v>39.32</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.9783</v>
+      </c>
+      <c r="P11" s="2">
+        <v>949</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2">
+        <v>34.63</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.929</v>
+      </c>
+      <c r="U11" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.8467</v>
+      </c>
+      <c r="W11" s="2">
+        <v>29.25</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.8093</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>28.76</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0.8646</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>34.3</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0.949</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>961</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2">
+        <v>32.56</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>28.83</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0.7873</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>27.71</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0.7418</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0.8017</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>31.17</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0.917</v>
+      </c>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+    </row>
+    <row r="12" spans="1:54">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
         <v>298</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>38.17</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G12" s="2">
         <v>0.9613</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H12" s="2">
         <v>33.96</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I12" s="2">
         <v>0.9216</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J12" s="2">
         <v>32.31</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K12" s="2">
         <v>0.9017</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L12" s="2">
         <v>32.88</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M12" s="2">
         <v>0.9353</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
         <v>304</v>
       </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2">
         <v>34.58</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T12" s="2">
         <v>0.929</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U12" s="2">
         <v>30.53</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V12" s="2">
         <v>0.8465</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W12" s="2">
         <v>29.23</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X12" s="2">
         <v>0.8096</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y12" s="2">
         <v>28.68</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z12" s="2">
         <v>0.8633</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1">
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2">
         <v>313</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1">
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2">
         <v>17.2</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AF12" s="2">
         <v>32.39</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG12" s="2">
         <v>0.8964</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH12" s="2">
         <v>28.8</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI12" s="2">
         <v>0.7865</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ12" s="2">
         <v>27.7</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AK12" s="2">
         <v>0.7418</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AL12" s="2">
         <v>26.48</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AM12" s="2">
         <v>0.7978</v>
       </c>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-    </row>
-    <row r="11" spans="1:54">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+    </row>
+    <row r="13" spans="1:54">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C13" s="2">
         <v>732</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>38.32</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G13" s="2">
         <v>0.9618</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H13" s="2">
         <v>34.24</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I13" s="2">
         <v>0.9232</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J13" s="2">
         <v>32.4</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K13" s="2">
         <v>0.9028</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L13" s="2">
         <v>33.35</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M13" s="2">
         <v>0.9387</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2">
         <v>739</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2">
         <v>34.84</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T13" s="2">
         <v>0.9307</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U13" s="2">
         <v>30.66</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V13" s="2">
         <v>0.8491</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W13" s="2">
         <v>29.32</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X13" s="2">
         <v>0.8119</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y13" s="2">
         <v>29.08</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z13" s="2">
         <v>0.8706</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1">
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2">
         <v>748</v>
       </c>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1">
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2">
         <v>40.7</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF13" s="2">
         <v>32.57</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AG13" s="2">
         <v>0.899</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH13" s="2">
         <v>28.89</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI13" s="2">
         <v>0.7898</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ13" s="2">
         <v>27.78</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK13" s="2">
         <v>0.7449</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AL13" s="2">
         <v>26.89</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AM13" s="2">
         <v>0.8096</v>
       </c>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-    </row>
-    <row r="12" spans="1:54">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>393</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>38.24</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.9619</v>
-      </c>
-      <c r="H12" s="1">
-        <v>34.08</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.9215</v>
-      </c>
-      <c r="J12" s="1">
-        <v>32.35</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.9026</v>
-      </c>
-      <c r="L12" s="1">
-        <v>32.99</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.9354</v>
-      </c>
-      <c r="N12" s="1">
-        <v>39.4</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.9786</v>
-      </c>
-      <c r="P12" s="1">
-        <v>399</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1">
-        <v>34.69</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="U12" s="1">
-        <v>30.65</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0.8477</v>
-      </c>
-      <c r="W12" s="1">
-        <v>29.28</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0.8117</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>28.9</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>0.8659</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>34.31</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0.9487</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>408</v>
-      </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1">
-        <v>32.53</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>0.8994</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>28.88</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0.7876</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>27.76</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>0.744</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>26.69</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>0.8025</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>31.24</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>0.9148</v>
-      </c>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -2934,6 +3104,599 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BJ15"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="11.5384615384615" customWidth="1"/>
+    <col min="2" max="2" width="53.3076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="7"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3">
+        <v>932</v>
+      </c>
+      <c r="D6" s="3">
+        <v>33.14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.907</v>
+      </c>
+      <c r="F6" s="3">
+        <v>31.82</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.8939</v>
+      </c>
+      <c r="H6" s="3">
+        <v>33.19</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.9346</v>
+      </c>
+      <c r="J6" s="3">
+        <v>30.79</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.8694</v>
+      </c>
+      <c r="L6" s="3">
+        <v>29.37</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.8346</v>
+      </c>
+      <c r="N6" s="3">
+        <v>30.71</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.9013</v>
+      </c>
+      <c r="P6" s="3">
+        <v>27.65</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.8013</v>
+      </c>
+      <c r="R6" s="3">
+        <v>26.46</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.7333</v>
+      </c>
+      <c r="T6" s="3">
+        <v>27.32</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.8306</v>
+      </c>
+    </row>
+    <row r="11" spans="10:62">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+    </row>
+    <row r="12" spans="10:62">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+    </row>
+    <row r="13" spans="10:62">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+    </row>
+    <row r="14" spans="10:62">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+    </row>
+    <row r="15" spans="10:62">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="7"/>
+      <c r="BE15" s="7"/>
+      <c r="BF15" s="7"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2945,197 +3708,197 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="27" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.1538461538462" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.5384615384615" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.23076923076923" style="6"/>
+    <col min="1" max="1" width="27" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.1538461538462" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.5384615384615" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.23076923076923" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>30</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <v>50</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>70</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2">
         <v>370</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>28.42</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.8089</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>26.26</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>0.7246</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>24.95</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>0.6635</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>830</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>28.51</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.8139</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>26.35</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.7308</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>25.04</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>0.6705</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2">
         <v>370</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>28.45</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.8091</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>26.29</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>0.7245</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>24.96</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>0.6637</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
         <v>830</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>28.55</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.8142</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>26.36</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.731</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>25.07</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0.6706</v>
       </c>
     </row>
@@ -3168,68 +3931,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.9230769230769" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.3076923076923" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.23076923076923" style="6"/>
+    <col min="1" max="1" width="24.9230769230769" style="8" customWidth="1"/>
+    <col min="2" max="2" width="31.3076923076923" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.23076923076923" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2">
         <v>830</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>36.61</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.9605</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>830</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>36.65</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.9607</v>
       </c>
     </row>
@@ -3261,104 +4024,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="11">
         <v>1934</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>289.2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>33.2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.9246</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11">
         <v>3327</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>497.3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>33.4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.9277</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>33.23</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.9248</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>33.45</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.9276</v>
       </c>
     </row>
@@ -3390,102 +4153,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="8">
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="11">
         <v>912</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>118.7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>31.38</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.9274</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>25.36</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>0.8185</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3505,332 +4268,415 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="11.5384615384615" customWidth="1"/>
     <col min="2" max="2" width="35.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
         <v>25</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
         <v>50</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="1" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3">
         <v>407</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>34.22</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>0.9674</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>35.17</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>0.9674</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>35.3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>0.9758</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>34.67</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>0.9726</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>31.57</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>0.9443</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <v>32.69</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <v>0.9478</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
         <v>32.97</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3">
         <v>0.9619</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="3">
         <v>32.32</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="3">
         <v>0.9569</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="3">
         <v>28.36</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="3">
         <v>0.8956</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="3">
         <v>29.58</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="3">
         <v>0.9066</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="3">
         <v>29.78</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="3">
         <v>0.931</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="3">
         <v>29.03</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="3">
         <v>0.9199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3">
+        <v>935</v>
+      </c>
+      <c r="D7" s="3">
+        <v>34.23</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.9332</v>
+      </c>
+      <c r="F7" s="3">
+        <v>35.22</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.9276</v>
+      </c>
+      <c r="H7" s="3">
+        <v>35.31</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.9309</v>
+      </c>
+      <c r="J7" s="3">
+        <v>34.68</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.9488</v>
+      </c>
+      <c r="L7" s="3">
+        <v>31.59</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.8902</v>
+      </c>
+      <c r="N7" s="3">
+        <v>32.76</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.8887</v>
+      </c>
+      <c r="P7" s="3">
+        <v>33.02</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.9008</v>
+      </c>
+      <c r="R7" s="3">
+        <v>32.36</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.9244</v>
+      </c>
+      <c r="T7" s="3">
+        <v>28.37</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.8058</v>
+      </c>
+      <c r="V7" s="3">
+        <v>29.67</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.8143</v>
+      </c>
+      <c r="X7" s="3">
+        <v>29.91</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.8422</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>29.15</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0.8729</v>
       </c>
     </row>
   </sheetData>
@@ -3864,118 +4710,45 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.5384615384615" customWidth="1"/>
-    <col min="2" max="2" width="21.3076923076923" customWidth="1"/>
-    <col min="3" max="3" width="11.2307692307692" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2">
-        <v>407</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>23.76</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.8375</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="A1:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
-  <cols>
-    <col min="2" max="2" width="8.61538461538461" customWidth="1"/>
-    <col min="3" max="3" width="11.2307692307692" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="11.5384615384615" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.3846153846154" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.2307692307692" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.23076923076923" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>55</v>
@@ -3987,45 +4760,69 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>407</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>30.63</v>
+        <v>23.76</v>
       </c>
       <c r="F4" s="2">
-        <v>0.9075</v>
-      </c>
-      <c r="G4" s="3">
-        <v>29.73</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.8826</v>
+        <v>0.8375</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2">
+        <v>935</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>24.14</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.8423</v>
+      </c>
+      <c r="G5" s="2">
+        <v>28.73</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8886</v>
       </c>
     </row>
   </sheetData>
@@ -4041,4 +4838,497 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.23076923076923" style="8"/>
+    <col min="2" max="2" width="8.61538461538461" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.2307692307692" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.23076923076923" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2">
+        <v>407</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>30.63</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.9075</v>
+      </c>
+      <c r="G4" s="2">
+        <v>29.73</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.8826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2">
+        <v>935</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>30.44</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.9012</v>
+      </c>
+      <c r="G5" s="2">
+        <v>29.69</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8775</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="11.5384615384615" customWidth="1"/>
+    <col min="2" max="2" width="53.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="11.2307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
+        <v>50</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3">
+        <v>34.23</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9332</v>
+      </c>
+      <c r="F6" s="3">
+        <v>35.22</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.9276</v>
+      </c>
+      <c r="H6" s="3">
+        <v>35.31</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.9309</v>
+      </c>
+      <c r="J6" s="3">
+        <v>34.68</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.9488</v>
+      </c>
+      <c r="L6" s="3">
+        <v>31.59</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.8902</v>
+      </c>
+      <c r="N6" s="3">
+        <v>32.76</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.8887</v>
+      </c>
+      <c r="P6" s="3">
+        <v>33.02</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.9008</v>
+      </c>
+      <c r="R6" s="3">
+        <v>32.36</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.9244</v>
+      </c>
+      <c r="T6" s="3">
+        <v>28.37</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.8058</v>
+      </c>
+      <c r="V6" s="3">
+        <v>29.67</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.8143</v>
+      </c>
+      <c r="X6" s="3">
+        <v>29.91</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.8422</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>29.15</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0.8729</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B1:AA1"/>
+    <mergeCell ref="D2:AA2"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:S3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/CV/Lightweight/assets/IR_SR_Lightweight_Result.xlsx
+++ b/CV/Lightweight/assets/IR_SR_Lightweight_Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13160" firstSheet="7" activeTab="8"/>
+    <workbookView windowWidth="27660" windowHeight="13640"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="68">
   <si>
     <t>Method</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>LatticeNet-CL+</t>
+  </si>
+  <si>
+    <t>STSN</t>
   </si>
   <si>
     <t>Compacter</t>
@@ -1444,10 +1447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BB13"/>
+  <dimension ref="A1:BB14"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2575,110 +2578,116 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2">
-        <v>393</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="1">
+        <v>881.9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>197.7</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>38.24</v>
+        <v>38.19</v>
       </c>
       <c r="G10" s="2">
-        <v>0.9619</v>
+        <v>0.9611</v>
       </c>
       <c r="H10" s="2">
-        <v>34.08</v>
+        <v>33.78</v>
       </c>
       <c r="I10" s="2">
-        <v>0.9215</v>
+        <v>0.9199</v>
       </c>
       <c r="J10" s="2">
-        <v>32.35</v>
+        <v>32.3</v>
       </c>
       <c r="K10" s="2">
-        <v>0.9026</v>
+        <v>0.9013</v>
       </c>
       <c r="L10" s="2">
-        <v>32.99</v>
+        <v>32.68</v>
       </c>
       <c r="M10" s="2">
-        <v>0.9354</v>
+        <v>0.9336</v>
       </c>
       <c r="N10" s="2">
-        <v>39.4</v>
+        <v>39.13</v>
       </c>
       <c r="O10" s="2">
-        <v>0.9786</v>
-      </c>
-      <c r="P10" s="2">
-        <v>399</v>
-      </c>
-      <c r="Q10" s="2"/>
+        <v>0.9778</v>
+      </c>
+      <c r="P10" s="1">
+        <v>888.7</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>99.9</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2">
-        <v>34.69</v>
+        <v>34.62</v>
       </c>
       <c r="T10" s="2">
-        <v>0.93</v>
+        <v>0.9292</v>
       </c>
       <c r="U10" s="2">
-        <v>30.65</v>
+        <v>30.54</v>
       </c>
       <c r="V10" s="2">
-        <v>0.8477</v>
+        <v>0.8466</v>
       </c>
       <c r="W10" s="2">
-        <v>29.28</v>
+        <v>29.22</v>
       </c>
       <c r="X10" s="2">
-        <v>0.8117</v>
+        <v>0.809</v>
       </c>
       <c r="Y10" s="2">
-        <v>28.9</v>
+        <v>28.59</v>
       </c>
       <c r="Z10" s="2">
-        <v>0.8659</v>
+        <v>0.8621</v>
       </c>
       <c r="AA10" s="2">
-        <v>34.31</v>
+        <v>34.11</v>
       </c>
       <c r="AB10" s="2">
-        <v>0.9487</v>
+        <v>0.948</v>
       </c>
       <c r="AC10" s="2">
-        <v>408</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>898.2</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>50.3</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2">
-        <v>32.53</v>
+        <v>32.46</v>
       </c>
       <c r="AG10" s="2">
-        <v>0.8994</v>
+        <v>0.8982</v>
       </c>
       <c r="AH10" s="2">
-        <v>28.88</v>
+        <v>28.76</v>
       </c>
       <c r="AI10" s="2">
-        <v>0.7876</v>
+        <v>0.786</v>
       </c>
       <c r="AJ10" s="2">
-        <v>27.76</v>
+        <v>27.68</v>
       </c>
       <c r="AK10" s="2">
-        <v>0.744</v>
+        <v>0.7405</v>
       </c>
       <c r="AL10" s="2">
-        <v>26.69</v>
+        <v>26.39</v>
       </c>
       <c r="AM10" s="2">
-        <v>0.8025</v>
+        <v>0.7971</v>
       </c>
       <c r="AN10" s="2">
-        <v>31.24</v>
+        <v>30.93</v>
       </c>
       <c r="AO10" s="2">
-        <v>0.9148</v>
+        <v>0.9142</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
@@ -2702,115 +2711,109 @@
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>940</v>
-      </c>
-      <c r="D11" s="2">
-        <v>163.4</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>38.16</v>
+        <v>38.24</v>
       </c>
       <c r="G11" s="2">
-        <v>0.9612</v>
+        <v>0.9619</v>
       </c>
       <c r="H11" s="2">
-        <v>34</v>
+        <v>34.08</v>
       </c>
       <c r="I11" s="2">
-        <v>0.9213</v>
+        <v>0.9215</v>
       </c>
       <c r="J11" s="2">
-        <v>32.33</v>
+        <v>32.35</v>
       </c>
       <c r="K11" s="2">
-        <v>0.9015</v>
+        <v>0.9026</v>
       </c>
       <c r="L11" s="2">
-        <v>32.81</v>
+        <v>32.99</v>
       </c>
       <c r="M11" s="2">
-        <v>0.9346</v>
+        <v>0.9354</v>
       </c>
       <c r="N11" s="2">
-        <v>39.32</v>
+        <v>39.4</v>
       </c>
       <c r="O11" s="2">
-        <v>0.9783</v>
+        <v>0.9786</v>
       </c>
       <c r="P11" s="2">
-        <v>949</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>77.3</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2">
-        <v>34.63</v>
+        <v>34.69</v>
       </c>
       <c r="T11" s="2">
-        <v>0.929</v>
+        <v>0.93</v>
       </c>
       <c r="U11" s="2">
-        <v>30.6</v>
+        <v>30.65</v>
       </c>
       <c r="V11" s="2">
-        <v>0.8467</v>
+        <v>0.8477</v>
       </c>
       <c r="W11" s="2">
-        <v>29.25</v>
+        <v>29.28</v>
       </c>
       <c r="X11" s="2">
-        <v>0.8093</v>
+        <v>0.8117</v>
       </c>
       <c r="Y11" s="2">
-        <v>28.76</v>
+        <v>28.9</v>
       </c>
       <c r="Z11" s="2">
-        <v>0.8646</v>
+        <v>0.8659</v>
       </c>
       <c r="AA11" s="2">
-        <v>34.3</v>
+        <v>34.31</v>
       </c>
       <c r="AB11" s="2">
-        <v>0.949</v>
+        <v>0.9487</v>
       </c>
       <c r="AC11" s="2">
-        <v>961</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>42.1</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2">
-        <v>32.56</v>
+        <v>32.53</v>
       </c>
       <c r="AG11" s="2">
-        <v>0.8992</v>
+        <v>0.8994</v>
       </c>
       <c r="AH11" s="2">
-        <v>28.83</v>
+        <v>28.88</v>
       </c>
       <c r="AI11" s="2">
-        <v>0.7873</v>
+        <v>0.7876</v>
       </c>
       <c r="AJ11" s="2">
-        <v>27.71</v>
+        <v>27.76</v>
       </c>
       <c r="AK11" s="2">
-        <v>0.7418</v>
+        <v>0.744</v>
       </c>
       <c r="AL11" s="2">
-        <v>26.6</v>
+        <v>26.69</v>
       </c>
       <c r="AM11" s="2">
-        <v>0.8017</v>
+        <v>0.8025</v>
       </c>
       <c r="AN11" s="2">
-        <v>31.17</v>
+        <v>31.24</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.917</v>
+        <v>0.9148</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
@@ -2834,100 +2837,116 @@
         <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>298</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>940</v>
+      </c>
+      <c r="D12" s="2">
+        <v>163.4</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <v>38.17</v>
+        <v>38.16</v>
       </c>
       <c r="G12" s="2">
-        <v>0.9613</v>
+        <v>0.9612</v>
       </c>
       <c r="H12" s="2">
-        <v>33.96</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2">
-        <v>0.9216</v>
+        <v>0.9213</v>
       </c>
       <c r="J12" s="2">
-        <v>32.31</v>
+        <v>32.33</v>
       </c>
       <c r="K12" s="2">
-        <v>0.9017</v>
+        <v>0.9015</v>
       </c>
       <c r="L12" s="2">
-        <v>32.88</v>
+        <v>32.81</v>
       </c>
       <c r="M12" s="2">
-        <v>0.9353</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>0.9346</v>
+      </c>
+      <c r="N12" s="2">
+        <v>39.32</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.9783</v>
+      </c>
       <c r="P12" s="2">
-        <v>304</v>
-      </c>
-      <c r="Q12" s="2"/>
+        <v>949</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>77.3</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2">
-        <v>34.58</v>
+        <v>34.63</v>
       </c>
       <c r="T12" s="2">
         <v>0.929</v>
       </c>
       <c r="U12" s="2">
-        <v>30.53</v>
+        <v>30.6</v>
       </c>
       <c r="V12" s="2">
-        <v>0.8465</v>
+        <v>0.8467</v>
       </c>
       <c r="W12" s="2">
-        <v>29.23</v>
+        <v>29.25</v>
       </c>
       <c r="X12" s="2">
-        <v>0.8096</v>
+        <v>0.8093</v>
       </c>
       <c r="Y12" s="2">
-        <v>28.68</v>
+        <v>28.76</v>
       </c>
       <c r="Z12" s="2">
-        <v>0.8633</v>
-      </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+        <v>0.8646</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>34.3</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0.949</v>
+      </c>
       <c r="AC12" s="2">
-        <v>313</v>
-      </c>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>17.2</v>
-      </c>
+        <v>961</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2">
-        <v>32.39</v>
+        <v>32.56</v>
       </c>
       <c r="AG12" s="2">
-        <v>0.8964</v>
+        <v>0.8992</v>
       </c>
       <c r="AH12" s="2">
-        <v>28.8</v>
+        <v>28.83</v>
       </c>
       <c r="AI12" s="2">
-        <v>0.7865</v>
+        <v>0.7873</v>
       </c>
       <c r="AJ12" s="2">
-        <v>27.7</v>
+        <v>27.71</v>
       </c>
       <c r="AK12" s="2">
         <v>0.7418</v>
       </c>
       <c r="AL12" s="2">
-        <v>26.48</v>
+        <v>26.6</v>
       </c>
       <c r="AM12" s="2">
-        <v>0.7978</v>
-      </c>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
+        <v>0.8017</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>31.17</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0.917</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
@@ -2950,97 +2969,97 @@
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>732</v>
+        <v>298</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
-        <v>38.32</v>
+        <v>38.17</v>
       </c>
       <c r="G13" s="2">
-        <v>0.9618</v>
+        <v>0.9613</v>
       </c>
       <c r="H13" s="2">
-        <v>34.24</v>
+        <v>33.96</v>
       </c>
       <c r="I13" s="2">
-        <v>0.9232</v>
+        <v>0.9216</v>
       </c>
       <c r="J13" s="2">
-        <v>32.4</v>
+        <v>32.31</v>
       </c>
       <c r="K13" s="2">
-        <v>0.9028</v>
+        <v>0.9017</v>
       </c>
       <c r="L13" s="2">
-        <v>33.35</v>
+        <v>32.88</v>
       </c>
       <c r="M13" s="2">
-        <v>0.9387</v>
+        <v>0.9353</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2">
-        <v>739</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2">
-        <v>34.84</v>
+        <v>34.58</v>
       </c>
       <c r="T13" s="2">
-        <v>0.9307</v>
+        <v>0.929</v>
       </c>
       <c r="U13" s="2">
-        <v>30.66</v>
+        <v>30.53</v>
       </c>
       <c r="V13" s="2">
-        <v>0.8491</v>
+        <v>0.8465</v>
       </c>
       <c r="W13" s="2">
-        <v>29.32</v>
+        <v>29.23</v>
       </c>
       <c r="X13" s="2">
-        <v>0.8119</v>
+        <v>0.8096</v>
       </c>
       <c r="Y13" s="2">
-        <v>29.08</v>
+        <v>28.68</v>
       </c>
       <c r="Z13" s="2">
-        <v>0.8706</v>
+        <v>0.8633</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2">
-        <v>748</v>
+        <v>313</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2">
-        <v>40.7</v>
+        <v>17.2</v>
       </c>
       <c r="AF13" s="2">
-        <v>32.57</v>
+        <v>32.39</v>
       </c>
       <c r="AG13" s="2">
-        <v>0.899</v>
+        <v>0.8964</v>
       </c>
       <c r="AH13" s="2">
-        <v>28.89</v>
+        <v>28.8</v>
       </c>
       <c r="AI13" s="2">
-        <v>0.7898</v>
+        <v>0.7865</v>
       </c>
       <c r="AJ13" s="2">
-        <v>27.78</v>
+        <v>27.7</v>
       </c>
       <c r="AK13" s="2">
-        <v>0.7449</v>
+        <v>0.7418</v>
       </c>
       <c r="AL13" s="2">
-        <v>26.89</v>
+        <v>26.48</v>
       </c>
       <c r="AM13" s="2">
-        <v>0.8096</v>
+        <v>0.7978</v>
       </c>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
@@ -3057,6 +3076,122 @@
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
+    </row>
+    <row r="14" spans="1:54">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>732</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>38.32</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.9618</v>
+      </c>
+      <c r="H14" s="2">
+        <v>34.24</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.9232</v>
+      </c>
+      <c r="J14" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.9028</v>
+      </c>
+      <c r="L14" s="2">
+        <v>33.35</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.9387</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2">
+        <v>739</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2">
+        <v>34.84</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.9307</v>
+      </c>
+      <c r="U14" s="2">
+        <v>30.66</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0.8491</v>
+      </c>
+      <c r="W14" s="2">
+        <v>29.32</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0.8119</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>29.08</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0.8706</v>
+      </c>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2">
+        <v>748</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
+        <v>40.7</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>32.57</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0.899</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>28.89</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>0.7898</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>27.78</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>0.7449</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>26.89</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>0.8096</v>
+      </c>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -3124,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3156,13 +3291,13 @@
     <row r="2" spans="1:28">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3230,11 +3365,11 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
@@ -3242,11 +3377,11 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
@@ -3254,11 +3389,11 @@
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
@@ -3334,10 +3469,10 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3">
         <v>932</v>
@@ -3719,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3732,13 +3867,13 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3788,10 +3923,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>370</v>
@@ -3817,10 +3952,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>830</v>
@@ -3846,10 +3981,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>370</v>
@@ -3875,10 +4010,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>830</v>
@@ -3941,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3950,7 +4085,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -3964,10 +4099,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>830</v>
@@ -3981,10 +4116,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>830</v>
@@ -4028,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4038,13 +4173,13 @@
     <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -4055,10 +4190,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="11">
         <v>1934</v>
@@ -4075,10 +4210,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="11">
         <v>3327</v>
@@ -4095,10 +4230,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4111,10 +4246,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4157,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4169,20 +4304,20 @@
     <row r="2" spans="1:8">
       <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -4206,10 +4341,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="11">
         <v>912</v>
@@ -4285,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4316,13 +4451,13 @@
     <row r="2" spans="1:27">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4388,15 +4523,15 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
@@ -4404,15 +4539,15 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
@@ -4420,15 +4555,15 @@
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3" t="s">
@@ -4515,10 +4650,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3">
         <v>407</v>
@@ -4598,10 +4733,10 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3">
         <v>935</v>
@@ -4730,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4742,20 +4877,20 @@
     <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4779,10 +4914,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
         <v>407</v>
@@ -4803,10 +4938,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2">
         <v>935</v>
@@ -4863,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4875,20 +5010,20 @@
     <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4912,10 +5047,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2">
         <v>407</v>
@@ -4936,10 +5071,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2">
         <v>935</v>
@@ -4978,7 +5113,7 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
@@ -4994,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5025,13 +5160,13 @@
     <row r="2" spans="1:27">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -5097,15 +5232,15 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
@@ -5113,15 +5248,15 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3" t="s">
@@ -5129,15 +5264,15 @@
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3" t="s">
@@ -5224,13 +5359,13 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3">
         <v>34.23</v>

--- a/CV/Lightweight/assets/IR_SR_Lightweight_Result.xlsx
+++ b/CV/Lightweight/assets/IR_SR_Lightweight_Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13640"/>
+    <workbookView windowWidth="27660" windowHeight="13640" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="IR_Image_Derain" sheetId="9" r:id="rId8"/>
     <sheet name="IR_Color_Image_Denoising" sheetId="10" r:id="rId9"/>
     <sheet name="IR_Grayscale_Image_Denoising" sheetId="11" r:id="rId10"/>
+    <sheet name="IR_Motion_Deblurring" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="75">
   <si>
     <t>Method</t>
   </si>
@@ -82,6 +83,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>HNCT</t>
+  </si>
+  <si>
     <t>LatticeNets1</t>
   </si>
   <si>
@@ -106,6 +110,15 @@
     <t>RAMiT</t>
   </si>
   <si>
+    <t>SRConvNet</t>
+  </si>
+  <si>
+    <t>DIV2K+Flickr2K</t>
+  </si>
+  <si>
+    <t>SRConvNet-L</t>
+  </si>
+  <si>
     <t>ASID</t>
   </si>
   <si>
@@ -187,39 +200,42 @@
     <t>DIV2K+Flickr2K+BSD400+WED</t>
   </si>
   <si>
+    <t>Low-Light Image Enhancement</t>
+  </si>
+  <si>
+    <t>LOL</t>
+  </si>
+  <si>
+    <t>VE-LOL-cap</t>
+  </si>
+  <si>
+    <t>485 LOL + 1300 VE-LOL</t>
+  </si>
+  <si>
+    <t>Image Derain</t>
+  </si>
+  <si>
+    <t>Test100</t>
+  </si>
+  <si>
+    <t>Rain100H</t>
+  </si>
+  <si>
+    <t>Rain13K</t>
+  </si>
+  <si>
+    <t>Color Image Denoising</t>
+  </si>
+  <si>
     <t>800 DIV2K+2650 Flickr2K+400 BSD500+4744 WED</t>
   </si>
   <si>
-    <t>Low-Light Image Enhancement</t>
-  </si>
-  <si>
-    <t>LOL</t>
-  </si>
-  <si>
-    <t>VE-LOL-cap</t>
-  </si>
-  <si>
-    <t>485 LOL + 1300 VE-LOL</t>
-  </si>
-  <si>
-    <t>Image Derain</t>
-  </si>
-  <si>
-    <t>Test100</t>
-  </si>
-  <si>
-    <t>Rain100H</t>
-  </si>
-  <si>
-    <t>Rain13K</t>
-  </si>
-  <si>
-    <t>Color Image Denoising</t>
-  </si>
-  <si>
     <t>935K</t>
   </si>
   <si>
+    <t>732K</t>
+  </si>
+  <si>
     <t>Grayscale Image Denoising</t>
   </si>
   <si>
@@ -227,6 +243,12 @@
   </si>
   <si>
     <t>BSD68</t>
+  </si>
+  <si>
+    <t>Motion_Deblurring</t>
+  </si>
+  <si>
+    <t>GoPro</t>
   </si>
 </sst>
 </file>
@@ -586,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -604,6 +626,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -755,7 +814,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,34 +826,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,17 +938,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -907,19 +975,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1447,881 +1515,887 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BB14"/>
+  <dimension ref="A1:BB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="16.6153846153846" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.6923076923077" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6153846153846" style="8" customWidth="1"/>
-    <col min="4" max="5" width="14.4615384615385" style="8" customWidth="1"/>
-    <col min="6" max="15" width="9.23076923076923" style="8"/>
-    <col min="16" max="16" width="11.2307692307692" style="8" customWidth="1"/>
-    <col min="17" max="18" width="14.4615384615385" style="8" customWidth="1"/>
-    <col min="19" max="28" width="9.23076923076923" style="8"/>
-    <col min="29" max="29" width="11.2307692307692" style="8" customWidth="1"/>
-    <col min="30" max="31" width="14.4615384615385" style="8" customWidth="1"/>
-    <col min="32" max="41" width="9.23076923076923" style="8"/>
-    <col min="42" max="42" width="11.2307692307692" style="8" customWidth="1"/>
-    <col min="43" max="44" width="14.4615384615385" style="8" customWidth="1"/>
-    <col min="45" max="16384" width="9.23076923076923" style="8"/>
+    <col min="1" max="1" width="16.6153846153846" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.3846153846154" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.6153846153846" style="11" customWidth="1"/>
+    <col min="4" max="5" width="14.4615384615385" style="11" customWidth="1"/>
+    <col min="6" max="15" width="9.23076923076923" style="11"/>
+    <col min="16" max="16" width="11.2307692307692" style="11" customWidth="1"/>
+    <col min="17" max="18" width="14.4615384615385" style="11" customWidth="1"/>
+    <col min="19" max="28" width="9.23076923076923" style="11"/>
+    <col min="29" max="29" width="11.2307692307692" style="11" customWidth="1"/>
+    <col min="30" max="31" width="14.4615384615385" style="11" customWidth="1"/>
+    <col min="32" max="41" width="9.23076923076923" style="11"/>
+    <col min="42" max="42" width="11.2307692307692" style="11" customWidth="1"/>
+    <col min="43" max="44" width="14.4615384615385" style="11" customWidth="1"/>
+    <col min="45" max="16384" width="9.23076923076923" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:54">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="15" customFormat="1" spans="1:54">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="1" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="1" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="1" t="s">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AS1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-    </row>
-    <row r="2" s="12" customFormat="1" spans="1:54">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="13" t="s">
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+    </row>
+    <row r="2" s="15" customFormat="1" spans="1:54">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="13" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="16"/>
+      <c r="U2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13" t="s">
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13" t="s">
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="13" t="s">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13" t="s">
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13" t="s">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13" t="s">
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13" t="s">
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="13" t="s">
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13" t="s">
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13" t="s">
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13" t="s">
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13" t="s">
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="13"/>
-    </row>
-    <row r="3" s="12" customFormat="1" spans="1:54">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB3" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" spans="1:54">
-      <c r="A4" s="13" t="s">
+      <c r="BB2" s="16"/>
+    </row>
+    <row r="3" s="15" customFormat="1" spans="1:54">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB3" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:54">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="16">
         <v>770</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13">
+      <c r="R4" s="16"/>
+      <c r="S4" s="16">
         <v>34.42</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="16">
         <v>0.9268</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="16">
         <v>30.43</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="16">
         <v>0.8433</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="16">
         <v>29.15</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="16">
         <v>0.8063</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="16">
         <v>28.46</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="16">
         <v>0.8574</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AA4" s="16">
         <v>33.95</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="16">
         <v>0.9455</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="16">
         <v>751</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AD4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13">
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16">
         <v>32.19</v>
       </c>
-      <c r="AG4" s="13">
+      <c r="AG4" s="16">
         <v>0.8947</v>
       </c>
-      <c r="AH4" s="13">
+      <c r="AH4" s="16">
         <v>28.69</v>
       </c>
-      <c r="AI4" s="13">
+      <c r="AI4" s="16">
         <v>0.7833</v>
       </c>
-      <c r="AJ4" s="13">
+      <c r="AJ4" s="16">
         <v>27.69</v>
       </c>
-      <c r="AK4" s="13">
+      <c r="AK4" s="16">
         <v>0.7379</v>
       </c>
-      <c r="AL4" s="13">
+      <c r="AL4" s="16">
         <v>26.39</v>
       </c>
-      <c r="AM4" s="13">
+      <c r="AM4" s="16">
         <v>0.7962</v>
       </c>
-      <c r="AN4" s="13">
+      <c r="AN4" s="16">
         <v>30.75</v>
       </c>
-      <c r="AO4" s="13">
+      <c r="AO4" s="16">
         <v>0.91</v>
       </c>
-      <c r="AP4" s="13" t="s">
+      <c r="AP4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="13" t="s">
+      <c r="AQ4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13" t="s">
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="13" t="s">
+      <c r="AT4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AU4" s="13" t="s">
+      <c r="AU4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AV4" s="13" t="s">
+      <c r="AV4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AW4" s="13" t="s">
+      <c r="AW4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AX4" s="13" t="s">
+      <c r="AX4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AY4" s="13" t="s">
+      <c r="AY4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AZ4" s="13" t="s">
+      <c r="AZ4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="BA4" s="13" t="s">
+      <c r="BA4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="BB4" s="13" t="s">
+      <c r="BB4" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" spans="1:54">
-      <c r="A5" s="13" t="s">
+    <row r="5" s="15" customFormat="1" spans="1:54">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="16">
+        <v>356</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16">
+        <v>38.08</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.9608</v>
+      </c>
+      <c r="H5" s="16">
+        <v>33.65</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.9182</v>
+      </c>
+      <c r="J5" s="16">
+        <v>32.22</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.9001</v>
+      </c>
+      <c r="L5" s="16">
+        <v>32.22</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0.9294</v>
+      </c>
+      <c r="N5" s="16">
+        <v>38.87</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0.9774</v>
+      </c>
+      <c r="P5" s="16">
+        <v>363</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16">
+        <v>34.47</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0.9275</v>
+      </c>
+      <c r="U5" s="16">
+        <v>30.44</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0.8439</v>
+      </c>
+      <c r="W5" s="16">
+        <v>29.15</v>
+      </c>
+      <c r="X5" s="16">
+        <v>0.8067</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>28.28</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0.8557</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>33.81</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0.9459</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>372</v>
+      </c>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16">
+        <v>32.31</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>0.8957</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>28.71</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>0.7834</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>27.63</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>0.7381</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>26.2</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>0.7896</v>
+      </c>
+      <c r="AN5" s="16">
+        <v>30.7</v>
+      </c>
+      <c r="AO5" s="16">
+        <v>0.9112</v>
+      </c>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:54">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16">
         <v>266</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D6" s="16">
         <v>58.8</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16">
         <v>37.86</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G6" s="16">
         <v>0.96</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H6" s="16">
         <v>33.39</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I6" s="16">
         <v>0.916</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J6" s="16">
         <v>32.06</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K6" s="16">
         <v>0.8982</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L6" s="16">
         <v>31.72</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M6" s="16">
         <v>0.9242</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P6" s="16">
         <v>270</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q6" s="16">
         <v>26.6</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13">
+      <c r="R6" s="16"/>
+      <c r="S6" s="16">
         <v>34.17</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T6" s="16">
         <v>0.9252</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U6" s="16">
         <v>30.16</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V6" s="16">
         <v>0.838</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W6" s="16">
         <v>28.98</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X6" s="16">
         <v>0.8021</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Y6" s="16">
         <v>27.8</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="Z6" s="16">
         <v>0.844</v>
       </c>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13">
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16">
         <v>276</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD6" s="16">
         <v>15.3</v>
       </c>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13">
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16">
         <v>31.97</v>
       </c>
-      <c r="AG5" s="13">
+      <c r="AG6" s="16">
         <v>0.8911</v>
       </c>
-      <c r="AH5" s="13">
+      <c r="AH6" s="16">
         <v>28.44</v>
       </c>
-      <c r="AI5" s="13">
+      <c r="AI6" s="16">
         <v>0.7772</v>
       </c>
-      <c r="AJ5" s="13">
+      <c r="AJ6" s="16">
         <v>27.48</v>
       </c>
-      <c r="AK5" s="13">
+      <c r="AK6" s="16">
         <v>0.7321</v>
       </c>
-      <c r="AL5" s="13">
+      <c r="AL6" s="16">
         <v>25.78</v>
       </c>
-      <c r="AM5" s="13">
+      <c r="AM6" s="16">
         <v>0.7729</v>
       </c>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="13"/>
-    </row>
-    <row r="6" s="12" customFormat="1" spans="1:54">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:54">
+      <c r="A7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C7" s="16">
         <v>756</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="16">
         <v>169.5</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16">
         <v>38.06</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="16">
         <v>0.9607</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="16">
         <v>33.7</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="16">
         <v>0.9187</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J7" s="16">
         <v>32.2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K7" s="16">
         <v>0.8999</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L7" s="16">
         <v>32.25</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M7" s="16">
         <v>0.9288</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P7" s="16">
         <v>765</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q7" s="16">
         <v>76.3</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13">
+      <c r="R7" s="16"/>
+      <c r="S7" s="16">
         <v>34.4</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T7" s="16">
         <v>0.9272</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U7" s="16">
         <v>30.32</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V7" s="16">
         <v>0.8416</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W7" s="16">
         <v>29.1</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X7" s="16">
         <v>0.8049</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y7" s="16">
         <v>28.19</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z7" s="16">
         <v>0.8513</v>
       </c>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13">
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16">
         <v>777</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD7" s="16">
         <v>43.6</v>
       </c>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13">
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16">
         <v>32.18</v>
       </c>
-      <c r="AG6" s="13">
+      <c r="AG7" s="16">
         <v>0.8943</v>
       </c>
-      <c r="AH6" s="13">
+      <c r="AH7" s="16">
         <v>28.61</v>
       </c>
-      <c r="AI6" s="13">
+      <c r="AI7" s="16">
         <v>0.7812</v>
       </c>
-      <c r="AJ6" s="13">
+      <c r="AJ7" s="16">
         <v>27.57</v>
       </c>
-      <c r="AK6" s="13">
+      <c r="AK7" s="16">
         <v>0.7355</v>
       </c>
-      <c r="AL6" s="13">
+      <c r="AL7" s="16">
         <v>26.14</v>
       </c>
-      <c r="AM6" s="13">
+      <c r="AM7" s="16">
         <v>0.7844</v>
       </c>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
-      <c r="BB6" s="13"/>
-    </row>
-    <row r="7" spans="1:54">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13">
-        <v>756</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1356</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>38.15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.961</v>
-      </c>
-      <c r="H7" s="2">
-        <v>33.78</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.9193</v>
-      </c>
-      <c r="J7" s="2">
-        <v>32.25</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.9005</v>
-      </c>
-      <c r="L7" s="2">
-        <v>32.43</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.9302</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="13">
-        <v>765</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>610.4</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2">
-        <v>34.53</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0.9281</v>
-      </c>
-      <c r="U7" s="2">
-        <v>30.39</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0.8424</v>
-      </c>
-      <c r="W7" s="2">
-        <v>29.15</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0.8059</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>28.33</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0.8538</v>
-      </c>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2">
-        <v>777</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>348.8</v>
-      </c>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2">
-        <v>32.3</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0.8962</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>28.68</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0.783</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>27.62</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>0.7367</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>26.25</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>0.7873</v>
-      </c>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
     </row>
     <row r="8" spans="1:54">
       <c r="A8" s="2" t="s">
@@ -2330,36 +2404,36 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="16">
         <v>756</v>
       </c>
       <c r="D8" s="2">
-        <v>169.5</v>
+        <v>1356</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <v>38.09</v>
+        <v>38.15</v>
       </c>
       <c r="G8" s="2">
-        <v>0.9608</v>
+        <v>0.961</v>
       </c>
       <c r="H8" s="2">
-        <v>33.7</v>
+        <v>33.78</v>
       </c>
       <c r="I8" s="2">
-        <v>0.9188</v>
+        <v>0.9193</v>
       </c>
       <c r="J8" s="2">
-        <v>32.21</v>
+        <v>32.25</v>
       </c>
       <c r="K8" s="2">
-        <v>0.9</v>
+        <v>0.9005</v>
       </c>
       <c r="L8" s="2">
-        <v>32.29</v>
+        <v>32.43</v>
       </c>
       <c r="M8" s="2">
-        <v>0.9291</v>
+        <v>0.9302</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>18</v>
@@ -2367,36 +2441,36 @@
       <c r="O8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="16">
         <v>765</v>
       </c>
       <c r="Q8" s="2">
-        <v>76.3</v>
+        <v>610.4</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2">
-        <v>34.46</v>
+        <v>34.53</v>
       </c>
       <c r="T8" s="2">
-        <v>0.9275</v>
+        <v>0.9281</v>
       </c>
       <c r="U8" s="2">
-        <v>30.37</v>
+        <v>30.39</v>
       </c>
       <c r="V8" s="2">
-        <v>0.8422</v>
+        <v>0.8424</v>
       </c>
       <c r="W8" s="2">
-        <v>29.12</v>
+        <v>29.15</v>
       </c>
       <c r="X8" s="2">
-        <v>0.8054</v>
+        <v>0.8059</v>
       </c>
       <c r="Y8" s="2">
-        <v>28.23</v>
+        <v>28.33</v>
       </c>
       <c r="Z8" s="2">
-        <v>0.8525</v>
+        <v>0.8538</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -2404,32 +2478,32 @@
         <v>777</v>
       </c>
       <c r="AD8" s="2">
-        <v>43.6</v>
+        <v>348.8</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
         <v>32.3</v>
       </c>
       <c r="AG8" s="2">
-        <v>0.8958</v>
+        <v>0.8962</v>
       </c>
       <c r="AH8" s="2">
-        <v>28.65</v>
+        <v>28.68</v>
       </c>
       <c r="AI8" s="2">
-        <v>0.7822</v>
+        <v>0.783</v>
       </c>
       <c r="AJ8" s="2">
-        <v>27.59</v>
+        <v>27.62</v>
       </c>
       <c r="AK8" s="2">
-        <v>0.7365</v>
+        <v>0.7367</v>
       </c>
       <c r="AL8" s="2">
-        <v>26.19</v>
+        <v>26.25</v>
       </c>
       <c r="AM8" s="2">
-        <v>0.7855</v>
+        <v>0.7873</v>
       </c>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
@@ -2454,36 +2528,36 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="16">
         <v>756</v>
       </c>
       <c r="D9" s="2">
-        <v>1356</v>
+        <v>169.5</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>38.16</v>
+        <v>38.09</v>
       </c>
       <c r="G9" s="2">
-        <v>0.961</v>
+        <v>0.9608</v>
       </c>
       <c r="H9" s="2">
-        <v>33.77</v>
+        <v>33.7</v>
       </c>
       <c r="I9" s="2">
-        <v>0.9193</v>
+        <v>0.9188</v>
       </c>
       <c r="J9" s="2">
-        <v>32.25</v>
+        <v>32.21</v>
       </c>
       <c r="K9" s="2">
-        <v>0.9004</v>
+        <v>0.9</v>
       </c>
       <c r="L9" s="2">
-        <v>32.42</v>
+        <v>32.29</v>
       </c>
       <c r="M9" s="2">
-        <v>0.9302</v>
+        <v>0.9291</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>18</v>
@@ -2491,36 +2565,36 @@
       <c r="O9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="16">
         <v>765</v>
       </c>
       <c r="Q9" s="2">
-        <v>610.4</v>
+        <v>76.3</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2">
-        <v>34.54</v>
+        <v>34.46</v>
       </c>
       <c r="T9" s="2">
-        <v>0.9281</v>
+        <v>0.9275</v>
       </c>
       <c r="U9" s="2">
-        <v>30.42</v>
+        <v>30.37</v>
       </c>
       <c r="V9" s="2">
-        <v>0.843</v>
+        <v>0.8422</v>
       </c>
       <c r="W9" s="2">
-        <v>29.17</v>
+        <v>29.12</v>
       </c>
       <c r="X9" s="2">
-        <v>0.8063</v>
+        <v>0.8054</v>
       </c>
       <c r="Y9" s="2">
-        <v>28.37</v>
+        <v>28.23</v>
       </c>
       <c r="Z9" s="2">
-        <v>0.8548</v>
+        <v>0.8525</v>
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -2528,32 +2602,32 @@
         <v>777</v>
       </c>
       <c r="AD9" s="2">
-        <v>348.8</v>
+        <v>43.6</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2">
-        <v>32.39</v>
+        <v>32.3</v>
       </c>
       <c r="AG9" s="2">
-        <v>0.8973</v>
+        <v>0.8958</v>
       </c>
       <c r="AH9" s="2">
-        <v>28.71</v>
+        <v>28.65</v>
       </c>
       <c r="AI9" s="2">
-        <v>0.7837</v>
+        <v>0.7822</v>
       </c>
       <c r="AJ9" s="2">
-        <v>27.64</v>
+        <v>27.59</v>
       </c>
       <c r="AK9" s="2">
-        <v>0.7375</v>
+        <v>0.7365</v>
       </c>
       <c r="AL9" s="2">
-        <v>26.29</v>
+        <v>26.19</v>
       </c>
       <c r="AM9" s="2">
-        <v>0.789</v>
+        <v>0.7855</v>
       </c>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
@@ -2578,117 +2652,109 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
-        <v>881.9</v>
+      <c r="C10" s="16">
+        <v>756</v>
       </c>
       <c r="D10" s="2">
-        <v>197.7</v>
+        <v>1356</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>38.19</v>
+        <v>38.16</v>
       </c>
       <c r="G10" s="2">
-        <v>0.9611</v>
+        <v>0.961</v>
       </c>
       <c r="H10" s="2">
-        <v>33.78</v>
+        <v>33.77</v>
       </c>
       <c r="I10" s="2">
-        <v>0.9199</v>
+        <v>0.9193</v>
       </c>
       <c r="J10" s="2">
-        <v>32.3</v>
+        <v>32.25</v>
       </c>
       <c r="K10" s="2">
-        <v>0.9013</v>
+        <v>0.9004</v>
       </c>
       <c r="L10" s="2">
-        <v>32.68</v>
+        <v>32.42</v>
       </c>
       <c r="M10" s="2">
-        <v>0.9336</v>
-      </c>
-      <c r="N10" s="2">
-        <v>39.13</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.9778</v>
-      </c>
-      <c r="P10" s="1">
-        <v>888.7</v>
+        <v>0.9302</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="16">
+        <v>765</v>
       </c>
       <c r="Q10" s="2">
-        <v>99.9</v>
+        <v>610.4</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2">
-        <v>34.62</v>
+        <v>34.54</v>
       </c>
       <c r="T10" s="2">
-        <v>0.9292</v>
+        <v>0.9281</v>
       </c>
       <c r="U10" s="2">
-        <v>30.54</v>
+        <v>30.42</v>
       </c>
       <c r="V10" s="2">
-        <v>0.8466</v>
+        <v>0.843</v>
       </c>
       <c r="W10" s="2">
-        <v>29.22</v>
+        <v>29.17</v>
       </c>
       <c r="X10" s="2">
-        <v>0.809</v>
+        <v>0.8063</v>
       </c>
       <c r="Y10" s="2">
-        <v>28.59</v>
+        <v>28.37</v>
       </c>
       <c r="Z10" s="2">
-        <v>0.8621</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>34.11</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0.948</v>
-      </c>
+        <v>0.8548</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
       <c r="AC10" s="2">
-        <v>898.2</v>
+        <v>777</v>
       </c>
       <c r="AD10" s="2">
-        <v>50.3</v>
+        <v>348.8</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2">
-        <v>32.46</v>
+        <v>32.39</v>
       </c>
       <c r="AG10" s="2">
-        <v>0.8982</v>
+        <v>0.8973</v>
       </c>
       <c r="AH10" s="2">
-        <v>28.76</v>
+        <v>28.71</v>
       </c>
       <c r="AI10" s="2">
-        <v>0.786</v>
+        <v>0.7837</v>
       </c>
       <c r="AJ10" s="2">
-        <v>27.68</v>
+        <v>27.64</v>
       </c>
       <c r="AK10" s="2">
-        <v>0.7405</v>
+        <v>0.7375</v>
       </c>
       <c r="AL10" s="2">
-        <v>26.39</v>
+        <v>26.29</v>
       </c>
       <c r="AM10" s="2">
-        <v>0.7971</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>30.93</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0.9142</v>
-      </c>
+        <v>0.789</v>
+      </c>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
@@ -2710,110 +2776,116 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2">
-        <v>393</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="6">
+        <v>881.9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>197.7</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>38.24</v>
+        <v>38.19</v>
       </c>
       <c r="G11" s="2">
-        <v>0.9619</v>
+        <v>0.9611</v>
       </c>
       <c r="H11" s="2">
-        <v>34.08</v>
+        <v>33.78</v>
       </c>
       <c r="I11" s="2">
-        <v>0.9215</v>
+        <v>0.9199</v>
       </c>
       <c r="J11" s="2">
-        <v>32.35</v>
+        <v>32.3</v>
       </c>
       <c r="K11" s="2">
-        <v>0.9026</v>
+        <v>0.9013</v>
       </c>
       <c r="L11" s="2">
-        <v>32.99</v>
+        <v>32.68</v>
       </c>
       <c r="M11" s="2">
-        <v>0.9354</v>
+        <v>0.9336</v>
       </c>
       <c r="N11" s="2">
-        <v>39.4</v>
+        <v>39.13</v>
       </c>
       <c r="O11" s="2">
-        <v>0.9786</v>
-      </c>
-      <c r="P11" s="2">
-        <v>399</v>
-      </c>
-      <c r="Q11" s="2"/>
+        <v>0.9778</v>
+      </c>
+      <c r="P11" s="6">
+        <v>888.7</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>99.9</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2">
-        <v>34.69</v>
+        <v>34.62</v>
       </c>
       <c r="T11" s="2">
-        <v>0.93</v>
+        <v>0.9292</v>
       </c>
       <c r="U11" s="2">
-        <v>30.65</v>
+        <v>30.54</v>
       </c>
       <c r="V11" s="2">
-        <v>0.8477</v>
+        <v>0.8466</v>
       </c>
       <c r="W11" s="2">
-        <v>29.28</v>
+        <v>29.22</v>
       </c>
       <c r="X11" s="2">
-        <v>0.8117</v>
+        <v>0.809</v>
       </c>
       <c r="Y11" s="2">
-        <v>28.9</v>
+        <v>28.59</v>
       </c>
       <c r="Z11" s="2">
-        <v>0.8659</v>
+        <v>0.8621</v>
       </c>
       <c r="AA11" s="2">
-        <v>34.31</v>
+        <v>34.11</v>
       </c>
       <c r="AB11" s="2">
-        <v>0.9487</v>
+        <v>0.948</v>
       </c>
       <c r="AC11" s="2">
-        <v>408</v>
-      </c>
-      <c r="AD11" s="2"/>
+        <v>898.2</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>50.3</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2">
-        <v>32.53</v>
+        <v>32.46</v>
       </c>
       <c r="AG11" s="2">
-        <v>0.8994</v>
+        <v>0.8982</v>
       </c>
       <c r="AH11" s="2">
-        <v>28.88</v>
+        <v>28.76</v>
       </c>
       <c r="AI11" s="2">
-        <v>0.7876</v>
+        <v>0.786</v>
       </c>
       <c r="AJ11" s="2">
-        <v>27.76</v>
+        <v>27.68</v>
       </c>
       <c r="AK11" s="2">
-        <v>0.744</v>
+        <v>0.7405</v>
       </c>
       <c r="AL11" s="2">
-        <v>26.69</v>
+        <v>26.39</v>
       </c>
       <c r="AM11" s="2">
-        <v>0.8025</v>
+        <v>0.7971</v>
       </c>
       <c r="AN11" s="2">
-        <v>31.24</v>
+        <v>30.93</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.9148</v>
+        <v>0.9142</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
@@ -2837,115 +2909,109 @@
         <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>940</v>
-      </c>
-      <c r="D12" s="2">
-        <v>163.4</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <v>38.16</v>
+        <v>38.24</v>
       </c>
       <c r="G12" s="2">
-        <v>0.9612</v>
+        <v>0.9619</v>
       </c>
       <c r="H12" s="2">
-        <v>34</v>
+        <v>34.08</v>
       </c>
       <c r="I12" s="2">
-        <v>0.9213</v>
+        <v>0.9215</v>
       </c>
       <c r="J12" s="2">
-        <v>32.33</v>
+        <v>32.35</v>
       </c>
       <c r="K12" s="2">
-        <v>0.9015</v>
+        <v>0.9026</v>
       </c>
       <c r="L12" s="2">
-        <v>32.81</v>
+        <v>32.99</v>
       </c>
       <c r="M12" s="2">
-        <v>0.9346</v>
+        <v>0.9354</v>
       </c>
       <c r="N12" s="2">
-        <v>39.32</v>
+        <v>39.4</v>
       </c>
       <c r="O12" s="2">
-        <v>0.9783</v>
+        <v>0.9786</v>
       </c>
       <c r="P12" s="2">
-        <v>949</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>77.3</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2">
-        <v>34.63</v>
+        <v>34.69</v>
       </c>
       <c r="T12" s="2">
-        <v>0.929</v>
+        <v>0.93</v>
       </c>
       <c r="U12" s="2">
-        <v>30.6</v>
+        <v>30.65</v>
       </c>
       <c r="V12" s="2">
-        <v>0.8467</v>
+        <v>0.8477</v>
       </c>
       <c r="W12" s="2">
-        <v>29.25</v>
+        <v>29.28</v>
       </c>
       <c r="X12" s="2">
-        <v>0.8093</v>
+        <v>0.8117</v>
       </c>
       <c r="Y12" s="2">
-        <v>28.76</v>
+        <v>28.9</v>
       </c>
       <c r="Z12" s="2">
-        <v>0.8646</v>
+        <v>0.8659</v>
       </c>
       <c r="AA12" s="2">
-        <v>34.3</v>
+        <v>34.31</v>
       </c>
       <c r="AB12" s="2">
-        <v>0.949</v>
+        <v>0.9487</v>
       </c>
       <c r="AC12" s="2">
-        <v>961</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>42.1</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2">
-        <v>32.56</v>
+        <v>32.53</v>
       </c>
       <c r="AG12" s="2">
-        <v>0.8992</v>
+        <v>0.8994</v>
       </c>
       <c r="AH12" s="2">
-        <v>28.83</v>
+        <v>28.88</v>
       </c>
       <c r="AI12" s="2">
-        <v>0.7873</v>
+        <v>0.7876</v>
       </c>
       <c r="AJ12" s="2">
-        <v>27.71</v>
+        <v>27.76</v>
       </c>
       <c r="AK12" s="2">
-        <v>0.7418</v>
+        <v>0.744</v>
       </c>
       <c r="AL12" s="2">
-        <v>26.6</v>
+        <v>26.69</v>
       </c>
       <c r="AM12" s="2">
-        <v>0.8017</v>
+        <v>0.8025</v>
       </c>
       <c r="AN12" s="2">
-        <v>31.17</v>
+        <v>31.24</v>
       </c>
       <c r="AO12" s="2">
-        <v>0.917</v>
+        <v>0.9148</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
@@ -2969,100 +3035,116 @@
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>298</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>940</v>
+      </c>
+      <c r="D13" s="2">
+        <v>163.4</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
-        <v>38.17</v>
+        <v>38.16</v>
       </c>
       <c r="G13" s="2">
-        <v>0.9613</v>
+        <v>0.9612</v>
       </c>
       <c r="H13" s="2">
-        <v>33.96</v>
+        <v>34</v>
       </c>
       <c r="I13" s="2">
-        <v>0.9216</v>
+        <v>0.9213</v>
       </c>
       <c r="J13" s="2">
-        <v>32.31</v>
+        <v>32.33</v>
       </c>
       <c r="K13" s="2">
-        <v>0.9017</v>
+        <v>0.9015</v>
       </c>
       <c r="L13" s="2">
-        <v>32.88</v>
+        <v>32.81</v>
       </c>
       <c r="M13" s="2">
-        <v>0.9353</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>0.9346</v>
+      </c>
+      <c r="N13" s="2">
+        <v>39.32</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.9783</v>
+      </c>
       <c r="P13" s="2">
-        <v>304</v>
-      </c>
-      <c r="Q13" s="2"/>
+        <v>949</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>77.3</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2">
-        <v>34.58</v>
+        <v>34.63</v>
       </c>
       <c r="T13" s="2">
         <v>0.929</v>
       </c>
       <c r="U13" s="2">
-        <v>30.53</v>
+        <v>30.6</v>
       </c>
       <c r="V13" s="2">
-        <v>0.8465</v>
+        <v>0.8467</v>
       </c>
       <c r="W13" s="2">
-        <v>29.23</v>
+        <v>29.25</v>
       </c>
       <c r="X13" s="2">
-        <v>0.8096</v>
+        <v>0.8093</v>
       </c>
       <c r="Y13" s="2">
-        <v>28.68</v>
+        <v>28.76</v>
       </c>
       <c r="Z13" s="2">
-        <v>0.8633</v>
-      </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+        <v>0.8646</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>34.3</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0.949</v>
+      </c>
       <c r="AC13" s="2">
-        <v>313</v>
-      </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2">
-        <v>17.2</v>
-      </c>
+        <v>961</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2">
-        <v>32.39</v>
+        <v>32.56</v>
       </c>
       <c r="AG13" s="2">
-        <v>0.8964</v>
+        <v>0.8992</v>
       </c>
       <c r="AH13" s="2">
-        <v>28.8</v>
+        <v>28.83</v>
       </c>
       <c r="AI13" s="2">
-        <v>0.7865</v>
+        <v>0.7873</v>
       </c>
       <c r="AJ13" s="2">
-        <v>27.7</v>
+        <v>27.71</v>
       </c>
       <c r="AK13" s="2">
         <v>0.7418</v>
       </c>
       <c r="AL13" s="2">
-        <v>26.48</v>
+        <v>26.6</v>
       </c>
       <c r="AM13" s="2">
-        <v>0.7978</v>
-      </c>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
+        <v>0.8017</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>31.17</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0.917</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
@@ -3082,103 +3164,118 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
-        <v>732</v>
+        <v>387</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>74</v>
+      </c>
       <c r="F14" s="2">
-        <v>38.32</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2">
-        <v>0.9618</v>
+        <v>0.9605</v>
       </c>
       <c r="H14" s="2">
-        <v>34.24</v>
+        <v>33.58</v>
       </c>
       <c r="I14" s="2">
-        <v>0.9232</v>
+        <v>0.9186</v>
       </c>
       <c r="J14" s="2">
-        <v>32.4</v>
+        <v>32.16</v>
       </c>
       <c r="K14" s="2">
-        <v>0.9028</v>
+        <v>0.8995</v>
       </c>
       <c r="L14" s="2">
-        <v>33.35</v>
+        <v>32.05</v>
       </c>
       <c r="M14" s="2">
-        <v>0.9387</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>0.9272</v>
+      </c>
+      <c r="N14" s="2">
+        <v>38.87</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.9774</v>
+      </c>
       <c r="P14" s="2">
-        <v>739</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="R14" s="2">
+        <v>33</v>
+      </c>
       <c r="S14" s="2">
-        <v>34.84</v>
+        <v>34.4</v>
       </c>
       <c r="T14" s="2">
-        <v>0.9307</v>
+        <v>0.9272</v>
       </c>
       <c r="U14" s="2">
-        <v>30.66</v>
+        <v>30.3</v>
       </c>
       <c r="V14" s="2">
-        <v>0.8491</v>
+        <v>0.8416</v>
       </c>
       <c r="W14" s="2">
-        <v>29.32</v>
+        <v>29.07</v>
       </c>
       <c r="X14" s="2">
-        <v>0.8119</v>
+        <v>0.8047</v>
       </c>
       <c r="Y14" s="2">
-        <v>29.08</v>
+        <v>28.04</v>
       </c>
       <c r="Z14" s="2">
-        <v>0.8706</v>
-      </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>33.56</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0.9443</v>
+      </c>
       <c r="AC14" s="2">
-        <v>748</v>
+        <v>382</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
-        <v>40.7</v>
+        <v>22</v>
       </c>
       <c r="AF14" s="2">
-        <v>32.57</v>
+        <v>32.18</v>
       </c>
       <c r="AG14" s="2">
-        <v>0.899</v>
+        <v>0.8951</v>
       </c>
       <c r="AH14" s="2">
-        <v>28.89</v>
+        <v>28.61</v>
       </c>
       <c r="AI14" s="2">
-        <v>0.7898</v>
+        <v>0.7818</v>
       </c>
       <c r="AJ14" s="2">
-        <v>27.78</v>
+        <v>27.57</v>
       </c>
       <c r="AK14" s="2">
-        <v>0.7449</v>
+        <v>0.7359</v>
       </c>
       <c r="AL14" s="2">
-        <v>26.89</v>
+        <v>26.06</v>
       </c>
       <c r="AM14" s="2">
-        <v>0.8096</v>
-      </c>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
+        <v>0.7845</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>30.35</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0.9075</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
@@ -3192,6 +3289,370 @@
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
+    </row>
+    <row r="15" spans="1:54">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>885</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>160</v>
+      </c>
+      <c r="F15" s="2">
+        <v>38.14</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.961</v>
+      </c>
+      <c r="H15" s="2">
+        <v>33.81</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.9199</v>
+      </c>
+      <c r="J15" s="2">
+        <v>32.28</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.901</v>
+      </c>
+      <c r="L15" s="2">
+        <v>32.59</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.9321</v>
+      </c>
+      <c r="N15" s="2">
+        <v>39.22</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.9779</v>
+      </c>
+      <c r="P15" s="2">
+        <v>906</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>74</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2">
+        <v>34.59</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.9288</v>
+      </c>
+      <c r="U15" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0.8455</v>
+      </c>
+      <c r="W15" s="2">
+        <v>29.22</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.8081</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>28.56</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>34.17</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0.9479</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>902</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2">
+        <v>45</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>32.44</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0.8976</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>28.77</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>0.7857</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>27.69</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>0.7402</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>26.47</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>0.797</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>30.96</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0.9139</v>
+      </c>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+    </row>
+    <row r="16" spans="1:54">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>298</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>38.17</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.9613</v>
+      </c>
+      <c r="H16" s="2">
+        <v>33.96</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.9216</v>
+      </c>
+      <c r="J16" s="2">
+        <v>32.31</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.9017</v>
+      </c>
+      <c r="L16" s="2">
+        <v>32.88</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.9353</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2">
+        <v>304</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2">
+        <v>34.58</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.929</v>
+      </c>
+      <c r="U16" s="2">
+        <v>30.53</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.8465</v>
+      </c>
+      <c r="W16" s="2">
+        <v>29.23</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.8096</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>28.68</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0.8633</v>
+      </c>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2">
+        <v>313</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0.8964</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>0.7865</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>0.7418</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>26.48</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0.7978</v>
+      </c>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+    </row>
+    <row r="17" spans="1:54">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>732</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>38.32</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.9618</v>
+      </c>
+      <c r="H17" s="2">
+        <v>34.24</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.9232</v>
+      </c>
+      <c r="J17" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.9028</v>
+      </c>
+      <c r="L17" s="2">
+        <v>33.35</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.9387</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2">
+        <v>739</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2">
+        <v>34.84</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.9307</v>
+      </c>
+      <c r="U17" s="2">
+        <v>30.66</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.8491</v>
+      </c>
+      <c r="W17" s="2">
+        <v>29.32</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.8119</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>29.08</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0.8706</v>
+      </c>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2">
+        <v>748</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2">
+        <v>40.7</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>32.57</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0.899</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>28.89</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>0.7898</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>27.78</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0.7449</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>26.89</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0.8096</v>
+      </c>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -3255,11 +3716,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3280,24 +3741,24 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="10"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="1"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3316,16 +3777,16 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="10"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="1"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -3352,64 +3813,64 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="1"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="1"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -3468,344 +3929,344 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4">
         <v>932</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>33.14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.907</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>31.82</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>0.8939</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>33.19</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>0.9346</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>30.79</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>0.8694</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <v>29.37</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <v>0.8346</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>30.71</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="4">
         <v>0.9013</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4">
         <v>27.65</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>0.8013</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="4">
         <v>26.46</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="4">
         <v>0.7333</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="4">
         <v>27.32</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="4">
         <v>0.8306</v>
       </c>
     </row>
     <row r="11" spans="10:62">
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-      <c r="BC11" s="7"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="7"/>
-      <c r="BJ11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="10"/>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="10"/>
     </row>
     <row r="12" spans="10:62">
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-      <c r="BC12" s="7"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="7"/>
-      <c r="BJ12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10"/>
+      <c r="BG12" s="10"/>
+      <c r="BH12" s="10"/>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="10"/>
     </row>
     <row r="13" spans="10:62">
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="7"/>
-      <c r="BD13" s="7"/>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="7"/>
-      <c r="BH13" s="7"/>
-      <c r="BI13" s="7"/>
-      <c r="BJ13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="10"/>
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="10"/>
     </row>
     <row r="14" spans="10:62">
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="7"/>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="7"/>
-      <c r="AX14" s="7"/>
-      <c r="AY14" s="7"/>
-      <c r="AZ14" s="7"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
-      <c r="BC14" s="7"/>
-      <c r="BD14" s="7"/>
-      <c r="BE14" s="7"/>
-      <c r="BF14" s="7"/>
-      <c r="BG14" s="7"/>
-      <c r="BH14" s="7"/>
-      <c r="BI14" s="7"/>
-      <c r="BJ14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="10"/>
+      <c r="BG14" s="10"/>
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="10"/>
     </row>
     <row r="15" spans="10:62">
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="7"/>
-      <c r="AT15" s="7"/>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="7"/>
-      <c r="AX15" s="7"/>
-      <c r="AY15" s="7"/>
-      <c r="AZ15" s="7"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="7"/>
-      <c r="BC15" s="7"/>
-      <c r="BD15" s="7"/>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="7"/>
-      <c r="BH15" s="7"/>
-      <c r="BI15" s="7"/>
-      <c r="BJ15" s="7"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="10"/>
+      <c r="BF15" s="10"/>
+      <c r="BG15" s="10"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3832,29 +4293,109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="24.9230769230769" customWidth="1"/>
+    <col min="3" max="3" width="11.2307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5200</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.943</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="27" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.1538461538462" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.5384615384615" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.23076923076923" style="8"/>
+    <col min="1" max="1" width="27" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.1538461538462" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5384615384615" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.23076923076923" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3865,15 +4406,15 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3882,7 +4423,7 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -3899,7 +4440,7 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -3923,10 +4464,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
         <v>370</v>
@@ -3952,10 +4493,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>830</v>
@@ -3981,10 +4522,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <v>370</v>
@@ -4010,10 +4551,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>830</v>
@@ -4060,15 +4601,15 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.9230769230769" style="8" customWidth="1"/>
-    <col min="2" max="2" width="31.3076923076923" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.23076923076923" style="8"/>
+    <col min="1" max="1" width="24.9230769230769" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.3076923076923" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9.23076923076923" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4076,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4085,7 +4626,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -4099,10 +4640,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>830</v>
@@ -4116,10 +4657,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>830</v>
@@ -4163,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4173,13 +4714,13 @@
     <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -4190,12 +4731,12 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="11">
+        <v>47</v>
+      </c>
+      <c r="C3" s="14">
         <v>1934</v>
       </c>
       <c r="D3" s="2">
@@ -4210,12 +4751,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="11">
+        <v>47</v>
+      </c>
+      <c r="C4" s="14">
         <v>3327</v>
       </c>
       <c r="D4" s="2">
@@ -4230,10 +4771,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4246,10 +4787,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4288,11 +4829,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4302,27 +4843,27 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4332,21 +4873,21 @@
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>47</v>
+      <c r="A4" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="11">
+        <v>52</v>
+      </c>
+      <c r="C4" s="14">
         <v>912</v>
       </c>
       <c r="D4" s="2">
@@ -4358,32 +4899,32 @@
       <c r="F4" s="2">
         <v>0.9274</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>25.36</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>0.8185</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4406,7 +4947,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A7" sqref="A7:AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -4416,11 +4957,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4449,15 +4990,15 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="1"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4484,7 +5025,7 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="1"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -4519,60 +5060,60 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="1"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="3"/>
+      <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="1"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -4649,170 +5190,116 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4">
         <v>407</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>34.22</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.9674</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>35.17</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>0.9674</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>35.3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>0.9758</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>34.67</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>0.9726</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <v>31.57</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <v>0.9443</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>32.69</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="4">
         <v>0.9478</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4">
         <v>32.97</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>0.9619</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="4">
         <v>32.32</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="4">
         <v>0.9569</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="4">
         <v>28.36</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="4">
         <v>0.8956</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="4">
         <v>29.58</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="4">
         <v>0.9066</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="4">
         <v>29.78</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="4">
         <v>0.931</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="4">
         <v>29.03</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="4">
         <v>0.9199</v>
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3">
-        <v>935</v>
-      </c>
-      <c r="D7" s="3">
-        <v>34.23</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.9332</v>
-      </c>
-      <c r="F7" s="3">
-        <v>35.22</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.9276</v>
-      </c>
-      <c r="H7" s="3">
-        <v>35.31</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.9309</v>
-      </c>
-      <c r="J7" s="3">
-        <v>34.68</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.9488</v>
-      </c>
-      <c r="L7" s="3">
-        <v>31.59</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.8902</v>
-      </c>
-      <c r="N7" s="3">
-        <v>32.76</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.8887</v>
-      </c>
-      <c r="P7" s="3">
-        <v>33.02</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0.9008</v>
-      </c>
-      <c r="R7" s="3">
-        <v>32.36</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0.9244</v>
-      </c>
-      <c r="T7" s="3">
-        <v>28.37</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0.8058</v>
-      </c>
-      <c r="V7" s="3">
-        <v>29.67</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0.8143</v>
-      </c>
-      <c r="X7" s="3">
-        <v>29.91</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0.8422</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>29.15</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0.8729</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4853,11 +5340,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.5384615384615" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.3846153846154" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.2307692307692" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.23076923076923" style="8"/>
+    <col min="1" max="1" width="11.5384615384615" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.3846153846154" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.2307692307692" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.23076923076923" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4865,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4877,20 +5364,20 @@
     <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -4914,10 +5401,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2">
         <v>407</v>
@@ -4938,10 +5425,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2">
         <v>935</v>
@@ -4981,16 +5468,16 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.23076923076923" style="8"/>
-    <col min="2" max="2" width="8.61538461538461" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.2307692307692" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.23076923076923" style="8"/>
+    <col min="1" max="1" width="9.23076923076923" style="11"/>
+    <col min="2" max="2" width="8.61538461538461" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.2307692307692" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.23076923076923" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4998,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5010,20 +5497,20 @@
     <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5047,10 +5534,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2">
         <v>407</v>
@@ -5071,10 +5558,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2">
         <v>935</v>
@@ -5111,13 +5598,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="11.5384615384615" customWidth="1"/>
     <col min="2" max="2" width="53.3076923076923" customWidth="1"/>
@@ -5125,11 +5612,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5158,15 +5645,15 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="1"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -5193,7 +5680,7 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="1"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -5228,60 +5715,60 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="1"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="3"/>
+      <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="1"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -5358,87 +5845,128 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4">
         <v>34.23</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0.9332</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>35.22</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>0.9276</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>35.31</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>0.9309</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>34.68</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>0.9488</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <v>31.59</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <v>0.8902</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>32.76</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="4">
         <v>0.8887</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4">
         <v>33.02</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>0.9008</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="4">
         <v>32.36</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="4">
         <v>0.9244</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="4">
         <v>28.37</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="4">
         <v>0.8058</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="4">
         <v>29.67</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="4">
         <v>0.8143</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="4">
         <v>29.91</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="4">
         <v>0.8422</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="4">
         <v>29.15</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="4">
         <v>0.8729</v>
       </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
+        <v>28.09</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <v>29.23</v>
+      </c>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
